--- a/results/Table1.xlsx
+++ b/results/Table1.xlsx
@@ -443,7 +443,7 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -454,7 +454,7 @@
         <v>123</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/results/Table1.xlsx
+++ b/results/Table1.xlsx
@@ -19,7 +19,10 @@
     <t>gRNA</t>
   </si>
   <si>
-    <t>Broad Spectrum</t>
+    <t>EF50</t>
+  </si>
+  <si>
+    <t>EF90</t>
   </si>
   <si>
     <t>Region</t>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t>Vpr</t>
-  </si>
-  <si>
-    <t>gp41</t>
   </si>
 </sst>
 </file>
@@ -407,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -423,43 +423,55 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -467,21 +479,27 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -489,10 +507,13 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -500,10 +521,13 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -511,16 +535,8 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/Table1.xlsx
+++ b/results/Table1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>gRNA</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Rev/Env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tat </t>
   </si>
   <si>
     <t>Tat/Rev</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,10 +449,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -460,10 +463,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -502,10 +505,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -519,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -530,12 +533,26 @@
         <v>11</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
